--- a/backEnd/huaqi/src/main/resources/file/TriangleBianjie.xlsx
+++ b/backEnd/huaqi/src/main/resources/file/TriangleBianjie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
   <si>
     <t>用例编号</t>
   </si>
@@ -46,13 +46,16 @@
     <t>预期输出(合理的及不合理的异常等)</t>
   </si>
   <si>
+    <t>测试用例执行时间</t>
+  </si>
+  <si>
     <t>罗雪婷</t>
   </si>
   <si>
     <t>判断三角形的形状</t>
   </si>
   <si>
-    <t>3,4,5</t>
+    <t>0,34,24</t>
   </si>
   <si>
     <t>测试程序的准确性</t>
@@ -61,16 +64,73 @@
     <t>空</t>
   </si>
   <si>
-    <t>输入必须为三个整数</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>输入不在范围内</t>
+  </si>
+  <si>
+    <t>1,34,65</t>
+  </si>
+  <si>
+    <t>不构成三角形</t>
+  </si>
+  <si>
+    <t>3,54,23</t>
+  </si>
+  <si>
+    <t>33,44,55</t>
   </si>
   <si>
     <t>一般三角形</t>
   </si>
   <si>
-    <t>3,4,6</t>
-  </si>
-  <si>
-    <t>3,4,7</t>
+    <t>98,45,45</t>
+  </si>
+  <si>
+    <t>100,51,51</t>
+  </si>
+  <si>
+    <t>等腰三角形</t>
+  </si>
+  <si>
+    <t>102,40,43</t>
+  </si>
+  <si>
+    <t>40,-2,24</t>
+  </si>
+  <si>
+    <t>39,1,32</t>
+  </si>
+  <si>
+    <t>40,2,40</t>
+  </si>
+  <si>
+    <t>34,98,82</t>
+  </si>
+  <si>
+    <t>67,100,35</t>
+  </si>
+  <si>
+    <t>56,104,66</t>
+  </si>
+  <si>
+    <t>37,65,0</t>
+  </si>
+  <si>
+    <t>76,48,1</t>
+  </si>
+  <si>
+    <t>37,56,3</t>
+  </si>
+  <si>
+    <t>76,18,96</t>
+  </si>
+  <si>
+    <t>87,43,100</t>
+  </si>
+  <si>
+    <t>37,83,103</t>
   </si>
 </sst>
 </file>
@@ -79,11 +139,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +152,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +180,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,105 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +310,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,169 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +501,75 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,75 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -544,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,140 +621,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1009,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="18.9090909090909" customWidth="1"/>
@@ -1025,9 +1091,10 @@
     <col min="7" max="7" width="17.4545454545455" customWidth="1"/>
     <col min="8" max="8" width="43.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="32.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,37 +1125,40 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1096,31 +1166,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1128,31 +1198,543 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
